--- a/Workbook Master Sheet.xlsx
+++ b/Workbook Master Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/GamblingAdviceTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="3580" windowWidth="27760" windowHeight="17980" tabRatio="500"/>
+    <workbookView xWindow="6620" yWindow="1260" windowWidth="32540" windowHeight="19740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1402</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8125" uniqueCount="71">
   <si>
     <t>Pictures/IA75_L15.bmp</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Response Keys</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P1409"/>
+  <dimension ref="A1:Q1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A1429" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +577,7 @@
     <col min="14" max="14" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -623,8 +626,11 @@
       <c r="P1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -674,8 +680,11 @@
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -722,8 +731,11 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>101</v>
       </c>
@@ -770,8 +782,11 @@
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>101</v>
       </c>
@@ -818,8 +833,11 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>101</v>
       </c>
@@ -866,8 +884,11 @@
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>101</v>
       </c>
@@ -914,8 +935,11 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>101</v>
       </c>
@@ -962,8 +986,11 @@
       <c r="P8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1010,8 +1037,11 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>101</v>
       </c>
@@ -1058,8 +1088,11 @@
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>101</v>
       </c>
@@ -1106,8 +1139,11 @@
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>101</v>
       </c>
@@ -1154,8 +1190,11 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>101</v>
       </c>
@@ -1202,8 +1241,11 @@
       <c r="P13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>101</v>
       </c>
@@ -1250,8 +1292,11 @@
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>101</v>
       </c>
@@ -1298,8 +1343,11 @@
       <c r="P15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>101</v>
       </c>
@@ -1346,8 +1394,11 @@
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>101</v>
       </c>
@@ -1394,8 +1445,11 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>101</v>
       </c>
@@ -1442,8 +1496,11 @@
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>101</v>
       </c>
@@ -1490,8 +1547,11 @@
       <c r="P19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>101</v>
       </c>
@@ -1538,8 +1598,11 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>101</v>
       </c>
@@ -1586,8 +1649,11 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>101</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>101</v>
       </c>
@@ -1685,8 +1754,11 @@
       <c r="P23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>101</v>
       </c>
@@ -1733,8 +1805,11 @@
       <c r="P24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>101</v>
       </c>
@@ -1781,8 +1856,11 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>101</v>
       </c>
@@ -1829,8 +1907,11 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>101</v>
       </c>
@@ -1877,8 +1958,11 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>101</v>
       </c>
@@ -1925,8 +2009,11 @@
       <c r="P28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>101</v>
       </c>
@@ -1973,8 +2060,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>101</v>
       </c>
@@ -2021,8 +2111,11 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>101</v>
       </c>
@@ -2069,8 +2162,11 @@
       <c r="P31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>101</v>
       </c>
@@ -2117,8 +2213,11 @@
       <c r="P32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>101</v>
       </c>
@@ -2165,8 +2264,11 @@
       <c r="P33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>101</v>
       </c>
@@ -2213,8 +2315,11 @@
       <c r="P34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>101</v>
       </c>
@@ -2261,8 +2366,11 @@
       <c r="P35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>101</v>
       </c>
@@ -2309,8 +2417,11 @@
       <c r="P36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>101</v>
       </c>
@@ -2357,8 +2468,11 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>101</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>101</v>
       </c>
@@ -2453,8 +2570,11 @@
       <c r="P39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>101</v>
       </c>
@@ -2501,8 +2621,11 @@
       <c r="P40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>101</v>
       </c>
@@ -2549,8 +2672,11 @@
       <c r="P41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>101</v>
       </c>
@@ -2600,8 +2726,11 @@
       <c r="P42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>101</v>
       </c>
@@ -2648,8 +2777,11 @@
       <c r="P43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>101</v>
       </c>
@@ -2696,8 +2828,11 @@
       <c r="P44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>101</v>
       </c>
@@ -2744,8 +2879,11 @@
       <c r="P45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>101</v>
       </c>
@@ -2792,8 +2930,11 @@
       <c r="P46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>101</v>
       </c>
@@ -2840,8 +2981,11 @@
       <c r="P47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>101</v>
       </c>
@@ -2888,8 +3032,11 @@
       <c r="P48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>101</v>
       </c>
@@ -2936,8 +3083,11 @@
       <c r="P49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>101</v>
       </c>
@@ -2984,8 +3134,11 @@
       <c r="P50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>101</v>
       </c>
@@ -3032,8 +3185,11 @@
       <c r="P51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>101</v>
       </c>
@@ -3080,8 +3236,11 @@
       <c r="P52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>101</v>
       </c>
@@ -3128,8 +3287,11 @@
       <c r="P53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>101</v>
       </c>
@@ -3176,8 +3338,11 @@
       <c r="P54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>101</v>
       </c>
@@ -3224,8 +3389,11 @@
       <c r="P55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>101</v>
       </c>
@@ -3272,8 +3440,11 @@
       <c r="P56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>101</v>
       </c>
@@ -3320,8 +3491,11 @@
       <c r="P57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>101</v>
       </c>
@@ -3368,8 +3542,11 @@
       <c r="P58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>101</v>
       </c>
@@ -3416,8 +3593,11 @@
       <c r="P59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>101</v>
       </c>
@@ -3464,8 +3644,11 @@
       <c r="P60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>101</v>
       </c>
@@ -3512,8 +3695,11 @@
       <c r="P61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>101</v>
       </c>
@@ -3563,8 +3749,11 @@
       <c r="P62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>101</v>
       </c>
@@ -3611,8 +3800,11 @@
       <c r="P63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>101</v>
       </c>
@@ -3659,8 +3851,11 @@
       <c r="P64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>101</v>
       </c>
@@ -3707,8 +3902,11 @@
       <c r="P65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>101</v>
       </c>
@@ -3755,8 +3953,11 @@
       <c r="P66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>101</v>
       </c>
@@ -3803,8 +4004,11 @@
       <c r="P67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>101</v>
       </c>
@@ -3851,8 +4055,11 @@
       <c r="P68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>101</v>
       </c>
@@ -3899,8 +4106,11 @@
       <c r="P69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>101</v>
       </c>
@@ -3947,8 +4157,11 @@
       <c r="P70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>101</v>
       </c>
@@ -3995,8 +4208,11 @@
       <c r="P71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>101</v>
       </c>
@@ -4043,8 +4259,11 @@
       <c r="P72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>101</v>
       </c>
@@ -4091,8 +4310,11 @@
       <c r="P73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>101</v>
       </c>
@@ -4139,8 +4361,11 @@
       <c r="P74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>101</v>
       </c>
@@ -4187,8 +4412,11 @@
       <c r="P75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>101</v>
       </c>
@@ -4235,8 +4463,11 @@
       <c r="P76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>101</v>
       </c>
@@ -4283,8 +4514,11 @@
       <c r="P77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>101</v>
       </c>
@@ -4331,8 +4565,11 @@
       <c r="P78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>101</v>
       </c>
@@ -4379,8 +4616,11 @@
       <c r="P79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>101</v>
       </c>
@@ -4427,8 +4667,11 @@
       <c r="P80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>101</v>
       </c>
@@ -4475,8 +4718,11 @@
       <c r="P81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>101</v>
       </c>
@@ -4526,8 +4772,11 @@
       <c r="P82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>101</v>
       </c>
@@ -4574,8 +4823,11 @@
       <c r="P83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>101</v>
       </c>
@@ -4622,8 +4874,11 @@
       <c r="P84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>101</v>
       </c>
@@ -4670,8 +4925,11 @@
       <c r="P85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>101</v>
       </c>
@@ -4718,8 +4976,11 @@
       <c r="P86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>101</v>
       </c>
@@ -4766,8 +5027,11 @@
       <c r="P87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>101</v>
       </c>
@@ -4814,8 +5078,11 @@
       <c r="P88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>101</v>
       </c>
@@ -4862,8 +5129,11 @@
       <c r="P89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>101</v>
       </c>
@@ -4910,8 +5180,11 @@
       <c r="P90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>101</v>
       </c>
@@ -4958,8 +5231,11 @@
       <c r="P91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>101</v>
       </c>
@@ -5006,8 +5282,11 @@
       <c r="P92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>101</v>
       </c>
@@ -5054,8 +5333,11 @@
       <c r="P93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>101</v>
       </c>
@@ -5102,8 +5384,11 @@
       <c r="P94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>101</v>
       </c>
@@ -5150,8 +5435,11 @@
       <c r="P95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>101</v>
       </c>
@@ -5198,8 +5486,11 @@
       <c r="P96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>101</v>
       </c>
@@ -5246,8 +5537,11 @@
       <c r="P97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5294,8 +5588,11 @@
       <c r="P98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>101</v>
       </c>
@@ -5342,8 +5639,11 @@
       <c r="P99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>101</v>
       </c>
@@ -5390,8 +5690,11 @@
       <c r="P100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5438,8 +5741,11 @@
       <c r="P101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5489,8 +5795,11 @@
       <c r="P102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5537,8 +5846,11 @@
       <c r="P103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>101</v>
       </c>
@@ -5585,8 +5897,11 @@
       <c r="P104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>101</v>
       </c>
@@ -5633,8 +5948,11 @@
       <c r="P105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>101</v>
       </c>
@@ -5681,8 +5999,11 @@
       <c r="P106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>101</v>
       </c>
@@ -5729,8 +6050,11 @@
       <c r="P107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>101</v>
       </c>
@@ -5777,8 +6101,11 @@
       <c r="P108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>101</v>
       </c>
@@ -5825,8 +6152,11 @@
       <c r="P109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>101</v>
       </c>
@@ -5873,8 +6203,11 @@
       <c r="P110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>101</v>
       </c>
@@ -5921,8 +6254,11 @@
       <c r="P111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>101</v>
       </c>
@@ -5969,8 +6305,11 @@
       <c r="P112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>101</v>
       </c>
@@ -6017,8 +6356,11 @@
       <c r="P113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>101</v>
       </c>
@@ -6065,8 +6407,11 @@
       <c r="P114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>101</v>
       </c>
@@ -6113,8 +6458,11 @@
       <c r="P115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>101</v>
       </c>
@@ -6161,8 +6509,11 @@
       <c r="P116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>101</v>
       </c>
@@ -6209,8 +6560,11 @@
       <c r="P117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>101</v>
       </c>
@@ -6257,8 +6611,11 @@
       <c r="P118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>101</v>
       </c>
@@ -6305,8 +6662,11 @@
       <c r="P119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>101</v>
       </c>
@@ -6353,8 +6713,11 @@
       <c r="P120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>101</v>
       </c>
@@ -6401,8 +6764,11 @@
       <c r="P121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>101</v>
       </c>
@@ -6452,8 +6818,11 @@
       <c r="P122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>101</v>
       </c>
@@ -6500,8 +6869,11 @@
       <c r="P123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>101</v>
       </c>
@@ -6548,8 +6920,11 @@
       <c r="P124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>101</v>
       </c>
@@ -6596,8 +6971,11 @@
       <c r="P125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>101</v>
       </c>
@@ -6644,8 +7022,11 @@
       <c r="P126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>101</v>
       </c>
@@ -6692,8 +7073,11 @@
       <c r="P127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>101</v>
       </c>
@@ -6740,8 +7124,11 @@
       <c r="P128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>101</v>
       </c>
@@ -6788,8 +7175,11 @@
       <c r="P129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>101</v>
       </c>
@@ -6836,8 +7226,11 @@
       <c r="P130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>101</v>
       </c>
@@ -6884,8 +7277,11 @@
       <c r="P131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>101</v>
       </c>
@@ -6932,8 +7328,11 @@
       <c r="P132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>101</v>
       </c>
@@ -6980,8 +7379,11 @@
       <c r="P133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>101</v>
       </c>
@@ -7028,8 +7430,11 @@
       <c r="P134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>101</v>
       </c>
@@ -7076,8 +7481,11 @@
       <c r="P135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>101</v>
       </c>
@@ -7124,8 +7532,11 @@
       <c r="P136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>101</v>
       </c>
@@ -7172,8 +7583,11 @@
       <c r="P137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>101</v>
       </c>
@@ -7220,8 +7634,11 @@
       <c r="P138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>101</v>
       </c>
@@ -7268,8 +7685,11 @@
       <c r="P139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>101</v>
       </c>
@@ -7316,8 +7736,11 @@
       <c r="P140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>101</v>
       </c>
@@ -7364,8 +7787,11 @@
       <c r="P141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>101</v>
       </c>
@@ -7415,8 +7841,11 @@
       <c r="P142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>101</v>
       </c>
@@ -7463,8 +7892,11 @@
       <c r="P143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>101</v>
       </c>
@@ -7511,8 +7943,11 @@
       <c r="P144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>101</v>
       </c>
@@ -7559,8 +7994,11 @@
       <c r="P145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>101</v>
       </c>
@@ -7607,8 +8045,11 @@
       <c r="P146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>101</v>
       </c>
@@ -7655,8 +8096,11 @@
       <c r="P147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>101</v>
       </c>
@@ -7703,8 +8147,11 @@
       <c r="P148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>101</v>
       </c>
@@ -7751,8 +8198,11 @@
       <c r="P149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>101</v>
       </c>
@@ -7799,8 +8249,11 @@
       <c r="P150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>101</v>
       </c>
@@ -7847,8 +8300,11 @@
       <c r="P151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>101</v>
       </c>
@@ -7895,8 +8351,11 @@
       <c r="P152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>101</v>
       </c>
@@ -7943,8 +8402,11 @@
       <c r="P153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>101</v>
       </c>
@@ -7991,8 +8453,11 @@
       <c r="P154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>101</v>
       </c>
@@ -8039,8 +8504,11 @@
       <c r="P155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>101</v>
       </c>
@@ -8087,8 +8555,11 @@
       <c r="P156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>101</v>
       </c>
@@ -8135,8 +8606,11 @@
       <c r="P157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>101</v>
       </c>
@@ -8183,8 +8657,11 @@
       <c r="P158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>101</v>
       </c>
@@ -8231,8 +8708,11 @@
       <c r="P159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>101</v>
       </c>
@@ -8279,8 +8759,11 @@
       <c r="P160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>101</v>
       </c>
@@ -8327,8 +8810,11 @@
       <c r="P161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>101</v>
       </c>
@@ -8378,8 +8864,11 @@
       <c r="P162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>101</v>
       </c>
@@ -8426,8 +8915,11 @@
       <c r="P163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>101</v>
       </c>
@@ -8474,8 +8966,11 @@
       <c r="P164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>101</v>
       </c>
@@ -8522,8 +9017,11 @@
       <c r="P165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>101</v>
       </c>
@@ -8570,8 +9068,11 @@
       <c r="P166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>101</v>
       </c>
@@ -8618,8 +9119,11 @@
       <c r="P167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>101</v>
       </c>
@@ -8666,8 +9170,11 @@
       <c r="P168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>101</v>
       </c>
@@ -8714,8 +9221,11 @@
       <c r="P169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>101</v>
       </c>
@@ -8762,8 +9272,11 @@
       <c r="P170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>101</v>
       </c>
@@ -8810,8 +9323,11 @@
       <c r="P171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>101</v>
       </c>
@@ -8858,8 +9374,11 @@
       <c r="P172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>101</v>
       </c>
@@ -8906,8 +9425,11 @@
       <c r="P173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>101</v>
       </c>
@@ -8954,8 +9476,11 @@
       <c r="P174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>101</v>
       </c>
@@ -9002,8 +9527,11 @@
       <c r="P175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>101</v>
       </c>
@@ -9050,8 +9578,11 @@
       <c r="P176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>101</v>
       </c>
@@ -9098,8 +9629,11 @@
       <c r="P177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>101</v>
       </c>
@@ -9146,8 +9680,11 @@
       <c r="P178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>101</v>
       </c>
@@ -9194,8 +9731,11 @@
       <c r="P179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>101</v>
       </c>
@@ -9242,8 +9782,11 @@
       <c r="P180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>101</v>
       </c>
@@ -9290,8 +9833,11 @@
       <c r="P181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>101</v>
       </c>
@@ -9341,8 +9887,11 @@
       <c r="P182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>101</v>
       </c>
@@ -9389,8 +9938,11 @@
       <c r="P183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>101</v>
       </c>
@@ -9437,8 +9989,11 @@
       <c r="P184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>101</v>
       </c>
@@ -9485,8 +10040,11 @@
       <c r="P185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>101</v>
       </c>
@@ -9533,8 +10091,11 @@
       <c r="P186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>101</v>
       </c>
@@ -9581,8 +10142,11 @@
       <c r="P187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>101</v>
       </c>
@@ -9629,8 +10193,11 @@
       <c r="P188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>101</v>
       </c>
@@ -9677,8 +10244,11 @@
       <c r="P189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>101</v>
       </c>
@@ -9725,8 +10295,11 @@
       <c r="P190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>101</v>
       </c>
@@ -9773,8 +10346,11 @@
       <c r="P191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>101</v>
       </c>
@@ -9821,8 +10397,11 @@
       <c r="P192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>101</v>
       </c>
@@ -9869,8 +10448,11 @@
       <c r="P193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>101</v>
       </c>
@@ -9917,8 +10499,11 @@
       <c r="P194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>101</v>
       </c>
@@ -9965,8 +10550,11 @@
       <c r="P195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>101</v>
       </c>
@@ -10013,8 +10601,11 @@
       <c r="P196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>101</v>
       </c>
@@ -10061,8 +10652,11 @@
       <c r="P197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>101</v>
       </c>
@@ -10109,8 +10703,11 @@
       <c r="P198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>101</v>
       </c>
@@ -10157,8 +10754,11 @@
       <c r="P199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>101</v>
       </c>
@@ -10205,8 +10805,11 @@
       <c r="P200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>101</v>
       </c>
@@ -10253,8 +10856,11 @@
       <c r="P201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>107</v>
       </c>
@@ -10305,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>107</v>
       </c>
@@ -10353,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>107</v>
       </c>
@@ -10401,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>107</v>
       </c>
@@ -10449,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>107</v>
       </c>
@@ -10497,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>107</v>
       </c>
@@ -10541,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>107</v>
       </c>
@@ -34551,7 +35157,7 @@
         <v>59</v>
       </c>
       <c r="M707">
-        <f t="shared" ref="M707:M770" si="11">IF(L707="right",1,0)</f>
+        <f t="shared" ref="M707:M768" si="11">IF(L707="right",1,0)</f>
         <v>0</v>
       </c>
       <c r="N707">
@@ -37660,7 +38266,7 @@
         <v>60</v>
       </c>
       <c r="M772">
-        <f t="shared" ref="M771:M834" si="12">IF(L772="right",1,0)</f>
+        <f t="shared" ref="M772:M834" si="12">IF(L772="right",1,0)</f>
         <v>1</v>
       </c>
       <c r="N772">
@@ -49957,7 +50563,7 @@
         <v>59</v>
       </c>
       <c r="M1028">
-        <f t="shared" ref="M1027:M1090" si="16">IF(L1028="right",1,0)</f>
+        <f t="shared" ref="M1028:M1090" si="16">IF(L1028="right",1,0)</f>
         <v>0</v>
       </c>
       <c r="N1028">
@@ -67913,6 +68519,33 @@
       </c>
     </row>
     <row r="1402" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1402">
+        <v>102</v>
+      </c>
+      <c r="B1402">
+        <v>1</v>
+      </c>
+      <c r="C1402">
+        <v>1</v>
+      </c>
+      <c r="D1402">
+        <v>1</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1402">
+        <v>0</v>
+      </c>
+      <c r="I1402" t="s">
+        <v>5</v>
+      </c>
       <c r="K1402">
         <v>0.54492195398779497</v>
       </c>
@@ -67933,9 +68566,6393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1409" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="1403" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1403">
+        <v>1</v>
+      </c>
+      <c r="C1403">
+        <v>2</v>
+      </c>
+      <c r="D1403">
+        <v>2</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1403">
+        <v>1</v>
+      </c>
+      <c r="I1403" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1403">
+        <v>0.64197141099975796</v>
+      </c>
+      <c r="L1403" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1404">
+        <v>1</v>
+      </c>
+      <c r="C1404">
+        <v>3</v>
+      </c>
+      <c r="D1404">
+        <v>3</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1404">
+        <v>1</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1404">
+        <v>0.66459326100084504</v>
+      </c>
+      <c r="L1404" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1405">
+        <v>1</v>
+      </c>
+      <c r="C1405">
+        <v>4</v>
+      </c>
+      <c r="D1405">
+        <v>4</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1405">
+        <v>0</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1405">
+        <v>0.79247071099962296</v>
+      </c>
+      <c r="L1405" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1406">
+        <v>1</v>
+      </c>
+      <c r="C1406">
+        <v>5</v>
+      </c>
+      <c r="D1406">
+        <v>5</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1406">
+        <v>0</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1406">
+        <v>0.99664349199883795</v>
+      </c>
+      <c r="L1406" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1407">
+        <v>1</v>
+      </c>
+      <c r="C1407">
+        <v>6</v>
+      </c>
+      <c r="D1407">
+        <v>6</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1407">
+        <v>1</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1407">
+        <v>0.39367063799909302</v>
+      </c>
+      <c r="L1407" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1408">
+        <v>1</v>
+      </c>
+      <c r="C1408">
+        <v>7</v>
+      </c>
+      <c r="D1408">
+        <v>7</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1408">
+        <v>0</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1408">
+        <v>0.79377552400001095</v>
+      </c>
+      <c r="L1408" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1409" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1409">
+        <v>1</v>
+      </c>
+      <c r="C1409">
+        <v>8</v>
+      </c>
+      <c r="D1409">
+        <v>8</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1409">
+        <v>1</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1409">
+        <v>0.70692844900077001</v>
+      </c>
+      <c r="L1409" t="s">
+        <v>59</v>
+      </c>
       <c r="N1409" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="1410" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1410">
+        <v>1</v>
+      </c>
+      <c r="C1410">
+        <v>9</v>
+      </c>
+      <c r="D1410">
+        <v>9</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1410">
+        <v>0</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1410">
+        <v>0.94998857900100098</v>
+      </c>
+      <c r="L1410" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1411" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1411">
+        <v>1</v>
+      </c>
+      <c r="C1411">
+        <v>10</v>
+      </c>
+      <c r="D1411">
+        <v>10</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1411">
+        <v>1</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1411">
+        <v>0.88589732600121296</v>
+      </c>
+      <c r="L1411" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1412" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1412">
+        <v>1</v>
+      </c>
+      <c r="C1412">
+        <v>11</v>
+      </c>
+      <c r="D1412">
+        <v>11</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1412">
+        <v>1</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1412">
+        <v>1.0308654090003899</v>
+      </c>
+      <c r="L1412" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1413" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1413">
+        <v>1</v>
+      </c>
+      <c r="C1413">
+        <v>12</v>
+      </c>
+      <c r="D1413">
+        <v>12</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1413">
+        <v>0</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1413">
+        <v>0.70171083300010595</v>
+      </c>
+      <c r="L1413" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1414" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1414">
+        <v>1</v>
+      </c>
+      <c r="C1414">
+        <v>13</v>
+      </c>
+      <c r="D1414">
+        <v>13</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1414">
+        <v>1</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1414">
+        <v>0.61217382200084103</v>
+      </c>
+      <c r="L1414" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1415" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1415">
+        <v>1</v>
+      </c>
+      <c r="C1415">
+        <v>14</v>
+      </c>
+      <c r="D1415">
+        <v>14</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1415">
+        <v>0</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1415">
+        <v>0.71569965500020705</v>
+      </c>
+      <c r="L1415" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1416" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1416">
+        <v>1</v>
+      </c>
+      <c r="C1416">
+        <v>15</v>
+      </c>
+      <c r="D1416">
+        <v>15</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1416">
+        <v>1</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1416">
+        <v>0.43519645800006401</v>
+      </c>
+      <c r="L1416" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1417" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1417">
+        <v>1</v>
+      </c>
+      <c r="C1417">
+        <v>16</v>
+      </c>
+      <c r="D1417">
+        <v>16</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1417">
+        <v>1</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1417">
+        <v>0.41555992199937403</v>
+      </c>
+      <c r="L1417" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1418" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1418">
+        <v>1</v>
+      </c>
+      <c r="C1418">
+        <v>17</v>
+      </c>
+      <c r="D1418">
+        <v>17</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1418">
+        <v>1</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1418">
+        <v>0.80797935599912296</v>
+      </c>
+      <c r="L1418" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1419" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1419">
+        <v>1</v>
+      </c>
+      <c r="C1419">
+        <v>18</v>
+      </c>
+      <c r="D1419">
+        <v>18</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1419">
+        <v>1</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1419">
+        <v>0.45938182399913702</v>
+      </c>
+      <c r="L1419" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1420" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1420">
+        <v>1</v>
+      </c>
+      <c r="C1420">
+        <v>19</v>
+      </c>
+      <c r="D1420">
+        <v>19</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1420">
+        <v>1</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1420">
+        <v>0.43156400699990599</v>
+      </c>
+      <c r="L1420" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1421" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1421">
+        <v>1</v>
+      </c>
+      <c r="C1421">
+        <v>20</v>
+      </c>
+      <c r="D1421">
+        <v>20</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1421">
+        <v>1</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1421">
+        <v>0.55091063300096699</v>
+      </c>
+      <c r="L1421" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1422" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1422">
+        <v>2</v>
+      </c>
+      <c r="C1422">
+        <v>1</v>
+      </c>
+      <c r="D1422">
+        <v>21</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1422">
+        <v>1</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1422">
+        <v>0.47986071199920799</v>
+      </c>
+      <c r="L1422" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1423" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1423">
+        <v>2</v>
+      </c>
+      <c r="C1423">
+        <v>2</v>
+      </c>
+      <c r="D1423">
+        <v>22</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1423">
+        <v>1</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1423" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1423">
+        <v>1.1430452789991199</v>
+      </c>
+      <c r="L1423" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1424" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1424">
+        <v>2</v>
+      </c>
+      <c r="C1424">
+        <v>3</v>
+      </c>
+      <c r="D1424">
+        <v>23</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1424">
+        <v>1</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1424">
+        <v>0.37456079199910097</v>
+      </c>
+      <c r="L1424" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1425" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1425">
+        <v>2</v>
+      </c>
+      <c r="C1425">
+        <v>4</v>
+      </c>
+      <c r="D1425">
+        <v>24</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1425">
+        <v>1</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1425">
+        <v>0.51610213499952795</v>
+      </c>
+      <c r="L1425" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1426" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1426">
+        <v>2</v>
+      </c>
+      <c r="C1426">
+        <v>5</v>
+      </c>
+      <c r="D1426">
+        <v>25</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1426">
+        <v>1</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1426">
+        <v>0.46106262200009901</v>
+      </c>
+      <c r="L1426" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1427" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1427">
+        <v>2</v>
+      </c>
+      <c r="C1427">
+        <v>6</v>
+      </c>
+      <c r="D1427">
+        <v>26</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1427">
+        <v>0</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1427">
+        <v>0.63021829500030402</v>
+      </c>
+      <c r="L1427" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1428" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1428">
+        <v>2</v>
+      </c>
+      <c r="C1428">
+        <v>7</v>
+      </c>
+      <c r="D1428">
+        <v>27</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1428">
+        <v>1</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1428">
+        <v>0.57392010000148697</v>
+      </c>
+      <c r="L1428" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1429" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1429">
+        <v>2</v>
+      </c>
+      <c r="C1429">
+        <v>8</v>
+      </c>
+      <c r="D1429">
+        <v>28</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1429">
+        <v>1</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1429">
+        <v>1.57881872899997</v>
+      </c>
+      <c r="L1429" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1430" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1430">
+        <v>2</v>
+      </c>
+      <c r="C1430">
+        <v>9</v>
+      </c>
+      <c r="D1430">
+        <v>29</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1430">
+        <v>1</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1430">
+        <v>0.336957834000713</v>
+      </c>
+      <c r="L1430" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1431" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1431">
+        <v>2</v>
+      </c>
+      <c r="C1431">
+        <v>10</v>
+      </c>
+      <c r="D1431">
+        <v>30</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1431">
+        <v>0</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1431">
+        <v>0.67235586700007799</v>
+      </c>
+      <c r="L1431" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1432">
+        <v>2</v>
+      </c>
+      <c r="C1432">
+        <v>11</v>
+      </c>
+      <c r="D1432">
+        <v>31</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1432">
+        <v>0</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1432">
+        <v>0.59433820799858905</v>
+      </c>
+      <c r="L1432" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1433">
+        <v>2</v>
+      </c>
+      <c r="C1433">
+        <v>12</v>
+      </c>
+      <c r="D1433">
+        <v>32</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1433">
+        <v>0</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1433">
+        <v>1.4606022269999801</v>
+      </c>
+      <c r="L1433" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1434">
+        <v>2</v>
+      </c>
+      <c r="C1434">
+        <v>13</v>
+      </c>
+      <c r="D1434">
+        <v>33</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1434">
+        <v>1</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1434">
+        <v>0.488039627000034</v>
+      </c>
+      <c r="L1434" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1435">
+        <v>2</v>
+      </c>
+      <c r="C1435">
+        <v>14</v>
+      </c>
+      <c r="D1435">
+        <v>34</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1435">
+        <v>1</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1435">
+        <v>0.27081968799939199</v>
+      </c>
+      <c r="L1435" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1436">
+        <v>2</v>
+      </c>
+      <c r="C1436">
+        <v>15</v>
+      </c>
+      <c r="D1436">
+        <v>35</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1436">
+        <v>0</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1436">
+        <v>0.52888230800090197</v>
+      </c>
+      <c r="L1436" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1437">
+        <v>2</v>
+      </c>
+      <c r="C1437">
+        <v>16</v>
+      </c>
+      <c r="D1437">
+        <v>36</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1437">
+        <v>0</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1437">
+        <v>0.29604821199973202</v>
+      </c>
+      <c r="L1437" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1438">
+        <v>2</v>
+      </c>
+      <c r="C1438">
+        <v>17</v>
+      </c>
+      <c r="D1438">
+        <v>37</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1438">
+        <v>0</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1438">
+        <v>0.84015277100115704</v>
+      </c>
+      <c r="L1438" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1439" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1439">
+        <v>2</v>
+      </c>
+      <c r="C1439">
+        <v>18</v>
+      </c>
+      <c r="D1439">
+        <v>38</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1439">
+        <v>1</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1439">
+        <v>0.61053720100062403</v>
+      </c>
+      <c r="L1439" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1440" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1440">
+        <v>2</v>
+      </c>
+      <c r="C1440">
+        <v>19</v>
+      </c>
+      <c r="D1440">
+        <v>39</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1440">
+        <v>0</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1440">
+        <v>0.42672871200011198</v>
+      </c>
+      <c r="L1440" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1441" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1441">
+        <v>2</v>
+      </c>
+      <c r="C1441">
+        <v>20</v>
+      </c>
+      <c r="D1441">
+        <v>40</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1441">
+        <v>1</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1441">
+        <v>0.50038818199936896</v>
+      </c>
+      <c r="L1441" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1442" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1442">
+        <v>3</v>
+      </c>
+      <c r="C1442">
+        <v>1</v>
+      </c>
+      <c r="D1442">
+        <v>41</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1442">
+        <v>1</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1442">
+        <v>0.82785535199946003</v>
+      </c>
+      <c r="L1442" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1443" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1443">
+        <v>3</v>
+      </c>
+      <c r="C1443">
+        <v>2</v>
+      </c>
+      <c r="D1443">
+        <v>42</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1443">
+        <v>1</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1443">
+        <v>1.0896438479994599</v>
+      </c>
+      <c r="L1443" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1444" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1444">
+        <v>3</v>
+      </c>
+      <c r="C1444">
+        <v>3</v>
+      </c>
+      <c r="D1444">
+        <v>43</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1444">
+        <v>1</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1444">
+        <v>0.85364891700010004</v>
+      </c>
+      <c r="L1444" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1445" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1445">
+        <v>3</v>
+      </c>
+      <c r="C1445">
+        <v>4</v>
+      </c>
+      <c r="D1445">
+        <v>44</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1445">
+        <v>1</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1445">
+        <v>0.33410008200007701</v>
+      </c>
+      <c r="L1445" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1446" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1446">
+        <v>3</v>
+      </c>
+      <c r="C1446">
+        <v>5</v>
+      </c>
+      <c r="D1446">
+        <v>45</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1446">
+        <v>1</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1446">
+        <v>0.950932850000754</v>
+      </c>
+      <c r="L1446" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1447" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1447">
+        <v>3</v>
+      </c>
+      <c r="C1447">
+        <v>6</v>
+      </c>
+      <c r="D1447">
+        <v>46</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1447">
+        <v>1</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1447">
+        <v>0.29606408600011402</v>
+      </c>
+      <c r="L1447" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1448" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1448">
+        <v>3</v>
+      </c>
+      <c r="C1448">
+        <v>7</v>
+      </c>
+      <c r="D1448">
+        <v>47</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1448">
+        <v>1</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1448">
+        <v>0.237807086999964</v>
+      </c>
+      <c r="L1448" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1449">
+        <v>3</v>
+      </c>
+      <c r="C1449">
+        <v>8</v>
+      </c>
+      <c r="D1449">
+        <v>48</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1449">
+        <v>0</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1449">
+        <v>0.20586586900026299</v>
+      </c>
+      <c r="L1449" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1450" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1450">
+        <v>3</v>
+      </c>
+      <c r="C1450">
+        <v>9</v>
+      </c>
+      <c r="D1450">
+        <v>49</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1450">
+        <v>0</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1450">
+        <v>0.62015869600145301</v>
+      </c>
+      <c r="L1450" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1451">
+        <v>3</v>
+      </c>
+      <c r="C1451">
+        <v>10</v>
+      </c>
+      <c r="D1451">
+        <v>50</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1451">
+        <v>1</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1451">
+        <v>0.30751649500052702</v>
+      </c>
+      <c r="L1451" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1452" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1452">
+        <v>3</v>
+      </c>
+      <c r="C1452">
+        <v>11</v>
+      </c>
+      <c r="D1452">
+        <v>51</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1452">
+        <v>1</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1452">
+        <v>0.92735800499940502</v>
+      </c>
+      <c r="L1452" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1453">
+        <v>3</v>
+      </c>
+      <c r="C1453">
+        <v>12</v>
+      </c>
+      <c r="D1453">
+        <v>52</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1453">
+        <v>0</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1453">
+        <v>0.63409616299941196</v>
+      </c>
+      <c r="L1453" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1454" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1454">
+        <v>3</v>
+      </c>
+      <c r="C1454">
+        <v>13</v>
+      </c>
+      <c r="D1454">
+        <v>53</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1454">
+        <v>0</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1454">
+        <v>1.5113674410004001</v>
+      </c>
+      <c r="L1454" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1455" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1455">
+        <v>3</v>
+      </c>
+      <c r="C1455">
+        <v>14</v>
+      </c>
+      <c r="D1455">
+        <v>54</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1455">
+        <v>1</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1455">
+        <v>0.79908920500019998</v>
+      </c>
+      <c r="L1455" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1456">
+        <v>3</v>
+      </c>
+      <c r="C1456">
+        <v>15</v>
+      </c>
+      <c r="D1456">
+        <v>55</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1456">
+        <v>0</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1456">
+        <v>0.42251232799935601</v>
+      </c>
+      <c r="L1456" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1457" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1457">
+        <v>3</v>
+      </c>
+      <c r="C1457">
+        <v>16</v>
+      </c>
+      <c r="D1457">
+        <v>56</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1457">
+        <v>1</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1457">
+        <v>0.43292753599962402</v>
+      </c>
+      <c r="L1457" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1458">
+        <v>3</v>
+      </c>
+      <c r="C1458">
+        <v>17</v>
+      </c>
+      <c r="D1458">
+        <v>57</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1458">
+        <v>0</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1458">
+        <v>1.4771111959998899</v>
+      </c>
+      <c r="L1458" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1459">
+        <v>3</v>
+      </c>
+      <c r="C1459">
+        <v>18</v>
+      </c>
+      <c r="D1459">
+        <v>58</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1459">
+        <v>1</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1459">
+        <v>0.38385820000075899</v>
+      </c>
+      <c r="L1459" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1460">
+        <v>3</v>
+      </c>
+      <c r="C1460">
+        <v>19</v>
+      </c>
+      <c r="D1460">
+        <v>59</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1460">
+        <v>1</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1460">
+        <v>0.968140941000456</v>
+      </c>
+      <c r="L1460" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1461">
+        <v>3</v>
+      </c>
+      <c r="C1461">
+        <v>20</v>
+      </c>
+      <c r="D1461">
+        <v>60</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1461">
+        <v>0</v>
+      </c>
+      <c r="I1461" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1461">
+        <v>0.36055705299986501</v>
+      </c>
+      <c r="L1461" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1462">
+        <v>4</v>
+      </c>
+      <c r="C1462">
+        <v>1</v>
+      </c>
+      <c r="D1462">
+        <v>61</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1462">
+        <v>0</v>
+      </c>
+      <c r="I1462" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1462">
+        <v>1.3850520529995201</v>
+      </c>
+      <c r="L1462" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1463">
+        <v>4</v>
+      </c>
+      <c r="C1463">
+        <v>2</v>
+      </c>
+      <c r="D1463">
+        <v>62</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1463">
+        <v>1</v>
+      </c>
+      <c r="I1463" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1463">
+        <v>0.389041034000911</v>
+      </c>
+      <c r="L1463" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1464">
+        <v>4</v>
+      </c>
+      <c r="C1464">
+        <v>3</v>
+      </c>
+      <c r="D1464">
+        <v>63</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1464">
+        <v>0</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1464">
+        <v>0.44054819899974901</v>
+      </c>
+      <c r="L1464" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1465">
+        <v>4</v>
+      </c>
+      <c r="C1465">
+        <v>4</v>
+      </c>
+      <c r="D1465">
+        <v>64</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1465">
+        <v>0</v>
+      </c>
+      <c r="I1465" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1465">
+        <v>0.32897339199916997</v>
+      </c>
+      <c r="L1465" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1466">
+        <v>4</v>
+      </c>
+      <c r="C1466">
+        <v>5</v>
+      </c>
+      <c r="D1466">
+        <v>65</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1466">
+        <v>1</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1466">
+        <v>0.4688167839995</v>
+      </c>
+      <c r="L1466" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1467">
+        <v>4</v>
+      </c>
+      <c r="C1467">
+        <v>6</v>
+      </c>
+      <c r="D1467">
+        <v>66</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1467">
+        <v>1</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1467">
+        <v>0.37685526099994598</v>
+      </c>
+      <c r="L1467" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1468">
+        <v>4</v>
+      </c>
+      <c r="C1468">
+        <v>7</v>
+      </c>
+      <c r="D1468">
+        <v>67</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1468">
+        <v>1</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1468">
+        <v>0.62833435899847201</v>
+      </c>
+      <c r="L1468" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1469">
+        <v>4</v>
+      </c>
+      <c r="C1469">
+        <v>8</v>
+      </c>
+      <c r="D1469">
+        <v>68</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1469">
+        <v>1</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1469">
+        <v>0.29491369400056999</v>
+      </c>
+      <c r="L1469" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1470">
+        <v>4</v>
+      </c>
+      <c r="C1470">
+        <v>9</v>
+      </c>
+      <c r="D1470">
+        <v>69</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1470">
+        <v>0</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1470">
+        <v>0.79847067700029495</v>
+      </c>
+      <c r="L1470" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1471">
+        <v>4</v>
+      </c>
+      <c r="C1471">
+        <v>10</v>
+      </c>
+      <c r="D1471">
+        <v>70</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1471">
+        <v>1</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1471">
+        <v>0.30164800799866498</v>
+      </c>
+      <c r="L1471" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1472">
+        <v>4</v>
+      </c>
+      <c r="C1472">
+        <v>11</v>
+      </c>
+      <c r="D1472">
+        <v>71</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1472">
+        <v>0</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1472" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1473">
+        <v>4</v>
+      </c>
+      <c r="C1473">
+        <v>12</v>
+      </c>
+      <c r="D1473">
+        <v>72</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1473">
+        <v>1</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1473">
+        <v>0.23779474200091499</v>
+      </c>
+      <c r="L1473" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1474">
+        <v>4</v>
+      </c>
+      <c r="C1474">
+        <v>13</v>
+      </c>
+      <c r="D1474">
+        <v>73</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1474">
+        <v>1</v>
+      </c>
+      <c r="I1474" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1474">
+        <v>0.66866676100107703</v>
+      </c>
+      <c r="L1474" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1475">
+        <v>4</v>
+      </c>
+      <c r="C1475">
+        <v>14</v>
+      </c>
+      <c r="D1475">
+        <v>74</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1475">
+        <v>1</v>
+      </c>
+      <c r="I1475" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1475">
+        <v>0.36702849399989601</v>
+      </c>
+      <c r="L1475" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1476">
+        <v>4</v>
+      </c>
+      <c r="C1476">
+        <v>15</v>
+      </c>
+      <c r="D1476">
+        <v>75</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1476">
+        <v>0</v>
+      </c>
+      <c r="I1476" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1476">
+        <v>0.34649557500051698</v>
+      </c>
+      <c r="L1476" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1477">
+        <v>4</v>
+      </c>
+      <c r="C1477">
+        <v>16</v>
+      </c>
+      <c r="D1477">
+        <v>76</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1477">
+        <v>1</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1477">
+        <v>1.1972317869986</v>
+      </c>
+      <c r="L1477" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1478">
+        <v>4</v>
+      </c>
+      <c r="C1478">
+        <v>17</v>
+      </c>
+      <c r="D1478">
+        <v>77</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1478">
+        <v>1</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1478">
+        <v>1.18751954099934</v>
+      </c>
+      <c r="L1478" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1479">
+        <v>4</v>
+      </c>
+      <c r="C1479">
+        <v>18</v>
+      </c>
+      <c r="D1479">
+        <v>78</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1479">
+        <v>1</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1479">
+        <v>0.38088137799968502</v>
+      </c>
+      <c r="L1479" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1480">
+        <v>4</v>
+      </c>
+      <c r="C1480">
+        <v>19</v>
+      </c>
+      <c r="D1480">
+        <v>79</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1480">
+        <v>1</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1480">
+        <v>0.23214019099941599</v>
+      </c>
+      <c r="L1480" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1481">
+        <v>4</v>
+      </c>
+      <c r="C1481">
+        <v>20</v>
+      </c>
+      <c r="D1481">
+        <v>80</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1481">
+        <v>0</v>
+      </c>
+      <c r="I1481" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1481">
+        <v>0.250498039999001</v>
+      </c>
+      <c r="L1481" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1482">
+        <v>5</v>
+      </c>
+      <c r="C1482">
+        <v>1</v>
+      </c>
+      <c r="D1482">
+        <v>81</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1482">
+        <v>0</v>
+      </c>
+      <c r="I1482" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1482">
+        <v>0.27719122000053098</v>
+      </c>
+      <c r="L1482" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1483">
+        <v>5</v>
+      </c>
+      <c r="C1483">
+        <v>2</v>
+      </c>
+      <c r="D1483">
+        <v>82</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1483">
+        <v>1</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1483">
+        <v>0.330448511000213</v>
+      </c>
+      <c r="L1483" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1484">
+        <v>5</v>
+      </c>
+      <c r="C1484">
+        <v>3</v>
+      </c>
+      <c r="D1484">
+        <v>83</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1484">
+        <v>1</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1484">
+        <v>1.15461968999989</v>
+      </c>
+      <c r="L1484" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1485">
+        <v>5</v>
+      </c>
+      <c r="C1485">
+        <v>4</v>
+      </c>
+      <c r="D1485">
+        <v>84</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1485">
+        <v>0</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1485">
+        <v>0.498724858000059</v>
+      </c>
+      <c r="L1485" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1486">
+        <v>5</v>
+      </c>
+      <c r="C1486">
+        <v>5</v>
+      </c>
+      <c r="D1486">
+        <v>85</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1486">
+        <v>0</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1486">
+        <v>0.26839379400007601</v>
+      </c>
+      <c r="L1486" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1487">
+        <v>5</v>
+      </c>
+      <c r="C1487">
+        <v>6</v>
+      </c>
+      <c r="D1487">
+        <v>86</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1487">
+        <v>0</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1487">
+        <v>0.72480076700048801</v>
+      </c>
+      <c r="L1487" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1488">
+        <v>5</v>
+      </c>
+      <c r="C1488">
+        <v>7</v>
+      </c>
+      <c r="D1488">
+        <v>87</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1488">
+        <v>0</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1488">
+        <v>0.31526291499903802</v>
+      </c>
+      <c r="L1488" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1489">
+        <v>5</v>
+      </c>
+      <c r="C1489">
+        <v>8</v>
+      </c>
+      <c r="D1489">
+        <v>88</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1489">
+        <v>1</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1489">
+        <v>0.75288820300011094</v>
+      </c>
+      <c r="L1489" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1490">
+        <v>5</v>
+      </c>
+      <c r="C1490">
+        <v>9</v>
+      </c>
+      <c r="D1490">
+        <v>89</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1490">
+        <v>1</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1490">
+        <v>0.71329975300068305</v>
+      </c>
+      <c r="L1490" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1491" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1491">
+        <v>5</v>
+      </c>
+      <c r="C1491">
+        <v>10</v>
+      </c>
+      <c r="D1491">
+        <v>90</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1491">
+        <v>1</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1491">
+        <v>0.91822310799943796</v>
+      </c>
+      <c r="L1491" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1492">
+        <v>5</v>
+      </c>
+      <c r="C1492">
+        <v>11</v>
+      </c>
+      <c r="D1492">
+        <v>91</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1492">
+        <v>1</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1492">
+        <v>0.20272171100077599</v>
+      </c>
+      <c r="L1492" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1493" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1493">
+        <v>5</v>
+      </c>
+      <c r="C1493">
+        <v>12</v>
+      </c>
+      <c r="D1493">
+        <v>92</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1493">
+        <v>0</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1493">
+        <v>0.223054797999793</v>
+      </c>
+      <c r="L1493" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1494" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1494">
+        <v>5</v>
+      </c>
+      <c r="C1494">
+        <v>13</v>
+      </c>
+      <c r="D1494">
+        <v>93</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1494">
+        <v>0</v>
+      </c>
+      <c r="I1494" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1494">
+        <v>0.350796642000204</v>
+      </c>
+      <c r="L1494" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1495" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1495">
+        <v>5</v>
+      </c>
+      <c r="C1495">
+        <v>14</v>
+      </c>
+      <c r="D1495">
+        <v>94</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1495">
+        <v>1</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1495">
+        <v>0.426430379000521</v>
+      </c>
+      <c r="L1495" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1496">
+        <v>5</v>
+      </c>
+      <c r="C1496">
+        <v>15</v>
+      </c>
+      <c r="D1496">
+        <v>95</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1496">
+        <v>0</v>
+      </c>
+      <c r="I1496" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1496">
+        <v>1.33691702399846</v>
+      </c>
+      <c r="L1496" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1497" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1497">
+        <v>5</v>
+      </c>
+      <c r="C1497">
+        <v>16</v>
+      </c>
+      <c r="D1497">
+        <v>96</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1497">
+        <v>1</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1497">
+        <v>1.0161039140002599</v>
+      </c>
+      <c r="L1497" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1498" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1498">
+        <v>5</v>
+      </c>
+      <c r="C1498">
+        <v>17</v>
+      </c>
+      <c r="D1498">
+        <v>97</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1498">
+        <v>1</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1498">
+        <v>0.51481241100009301</v>
+      </c>
+      <c r="L1498" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1499" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1499">
+        <v>5</v>
+      </c>
+      <c r="C1499">
+        <v>18</v>
+      </c>
+      <c r="D1499">
+        <v>98</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1499">
+        <v>1</v>
+      </c>
+      <c r="I1499" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1499">
+        <v>0.235068607000357</v>
+      </c>
+      <c r="L1499" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1500">
+        <v>5</v>
+      </c>
+      <c r="C1500">
+        <v>19</v>
+      </c>
+      <c r="D1500">
+        <v>99</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1500">
+        <v>1</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1500">
+        <v>0.18231654800001701</v>
+      </c>
+      <c r="L1500" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1501" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1501">
+        <v>5</v>
+      </c>
+      <c r="C1501">
+        <v>20</v>
+      </c>
+      <c r="D1501">
+        <v>100</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1501">
+        <v>1</v>
+      </c>
+      <c r="I1501" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1501">
+        <v>0.53943175799940901</v>
+      </c>
+      <c r="L1501" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1502">
+        <v>6</v>
+      </c>
+      <c r="C1502">
+        <v>1</v>
+      </c>
+      <c r="D1502">
+        <v>101</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1502">
+        <v>1</v>
+      </c>
+      <c r="I1502" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1502">
+        <v>1.57069113800025</v>
+      </c>
+      <c r="L1502" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1503">
+        <v>6</v>
+      </c>
+      <c r="C1503">
+        <v>2</v>
+      </c>
+      <c r="D1503">
+        <v>102</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1503">
+        <v>1</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1503" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1503">
+        <v>0.34658054499959601</v>
+      </c>
+      <c r="L1503" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1504" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1504">
+        <v>6</v>
+      </c>
+      <c r="C1504">
+        <v>3</v>
+      </c>
+      <c r="D1504">
+        <v>103</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1504">
+        <v>1</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1504">
+        <v>0.25616406900007799</v>
+      </c>
+      <c r="L1504" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1505">
+        <v>6</v>
+      </c>
+      <c r="C1505">
+        <v>4</v>
+      </c>
+      <c r="D1505">
+        <v>104</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1505">
+        <v>0</v>
+      </c>
+      <c r="I1505" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1505">
+        <v>0.24183362199983</v>
+      </c>
+      <c r="L1505" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1506">
+        <v>6</v>
+      </c>
+      <c r="C1506">
+        <v>5</v>
+      </c>
+      <c r="D1506">
+        <v>105</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1506">
+        <v>1</v>
+      </c>
+      <c r="I1506" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1506">
+        <v>0.58684723100122904</v>
+      </c>
+      <c r="L1506" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1507">
+        <v>6</v>
+      </c>
+      <c r="C1507">
+        <v>6</v>
+      </c>
+      <c r="D1507">
+        <v>106</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1507">
+        <v>1</v>
+      </c>
+      <c r="I1507" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1507">
+        <v>0.41222679699967502</v>
+      </c>
+      <c r="L1507" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1508">
+        <v>6</v>
+      </c>
+      <c r="C1508">
+        <v>7</v>
+      </c>
+      <c r="D1508">
+        <v>107</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1508">
+        <v>0</v>
+      </c>
+      <c r="I1508" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1508">
+        <v>0.23896062799940401</v>
+      </c>
+      <c r="L1508" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1509">
+        <v>6</v>
+      </c>
+      <c r="C1509">
+        <v>8</v>
+      </c>
+      <c r="D1509">
+        <v>108</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1509">
+        <v>1</v>
+      </c>
+      <c r="I1509" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1509">
+        <v>0.23938342499968701</v>
+      </c>
+      <c r="L1509" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1510">
+        <v>6</v>
+      </c>
+      <c r="C1510">
+        <v>9</v>
+      </c>
+      <c r="D1510">
+        <v>109</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1510">
+        <v>1</v>
+      </c>
+      <c r="I1510" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1510">
+        <v>1.8316335670006001</v>
+      </c>
+      <c r="L1510" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1511">
+        <v>6</v>
+      </c>
+      <c r="C1511">
+        <v>10</v>
+      </c>
+      <c r="D1511">
+        <v>110</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1511">
+        <v>1</v>
+      </c>
+      <c r="I1511" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1511">
+        <v>0.56840296500013199</v>
+      </c>
+      <c r="L1511" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1512">
+        <v>6</v>
+      </c>
+      <c r="C1512">
+        <v>11</v>
+      </c>
+      <c r="D1512">
+        <v>111</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1512">
+        <v>0</v>
+      </c>
+      <c r="I1512" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1512">
+        <v>0.72118799000054401</v>
+      </c>
+      <c r="L1512" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1513">
+        <v>6</v>
+      </c>
+      <c r="C1513">
+        <v>12</v>
+      </c>
+      <c r="D1513">
+        <v>112</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1513">
+        <v>0</v>
+      </c>
+      <c r="I1513" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1513">
+        <v>0.92304888299986398</v>
+      </c>
+      <c r="L1513" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1514">
+        <v>6</v>
+      </c>
+      <c r="C1514">
+        <v>13</v>
+      </c>
+      <c r="D1514">
+        <v>113</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1514">
+        <v>1</v>
+      </c>
+      <c r="I1514" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1514">
+        <v>0.76614885800154298</v>
+      </c>
+      <c r="L1514" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1515">
+        <v>6</v>
+      </c>
+      <c r="C1515">
+        <v>14</v>
+      </c>
+      <c r="D1515">
+        <v>114</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1515">
+        <v>0</v>
+      </c>
+      <c r="I1515" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1515">
+        <v>0.99908320200120204</v>
+      </c>
+      <c r="L1515" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1516">
+        <v>6</v>
+      </c>
+      <c r="C1516">
+        <v>15</v>
+      </c>
+      <c r="D1516">
+        <v>115</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1516">
+        <v>1</v>
+      </c>
+      <c r="I1516" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1516">
+        <v>0.52982164000059095</v>
+      </c>
+      <c r="L1516" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1517">
+        <v>6</v>
+      </c>
+      <c r="C1517">
+        <v>16</v>
+      </c>
+      <c r="D1517">
+        <v>116</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1517">
+        <v>1</v>
+      </c>
+      <c r="I1517" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1517">
+        <v>0.46539773900076398</v>
+      </c>
+      <c r="L1517" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1518">
+        <v>6</v>
+      </c>
+      <c r="C1518">
+        <v>17</v>
+      </c>
+      <c r="D1518">
+        <v>117</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1518">
+        <v>0</v>
+      </c>
+      <c r="I1518" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1518">
+        <v>0.31475357899944301</v>
+      </c>
+      <c r="L1518" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1519">
+        <v>6</v>
+      </c>
+      <c r="C1519">
+        <v>18</v>
+      </c>
+      <c r="D1519">
+        <v>118</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1519">
+        <v>0</v>
+      </c>
+      <c r="I1519" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1519">
+        <v>0.26508737800031601</v>
+      </c>
+      <c r="L1519" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1520">
+        <v>6</v>
+      </c>
+      <c r="C1520">
+        <v>19</v>
+      </c>
+      <c r="D1520">
+        <v>119</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1520">
+        <v>1</v>
+      </c>
+      <c r="I1520" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1520">
+        <v>0.47849792200031499</v>
+      </c>
+      <c r="L1520" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1521">
+        <v>6</v>
+      </c>
+      <c r="C1521">
+        <v>20</v>
+      </c>
+      <c r="D1521">
+        <v>120</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1521">
+        <v>0</v>
+      </c>
+      <c r="I1521" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1521">
+        <v>0.812610340999526</v>
+      </c>
+      <c r="L1521" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1522">
+        <v>7</v>
+      </c>
+      <c r="C1522">
+        <v>1</v>
+      </c>
+      <c r="D1522">
+        <v>121</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1522">
+        <v>0</v>
+      </c>
+      <c r="I1522" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1522">
+        <v>0.46210716599853102</v>
+      </c>
+      <c r="L1522" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1523">
+        <v>7</v>
+      </c>
+      <c r="C1523">
+        <v>2</v>
+      </c>
+      <c r="D1523">
+        <v>122</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1523" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1523">
+        <v>0</v>
+      </c>
+      <c r="I1523" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1523" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1523">
+        <v>0.40544315199986097</v>
+      </c>
+      <c r="L1523" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1524">
+        <v>7</v>
+      </c>
+      <c r="C1524">
+        <v>3</v>
+      </c>
+      <c r="D1524">
+        <v>123</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1524">
+        <v>1</v>
+      </c>
+      <c r="I1524" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1524">
+        <v>0.73332235399902801</v>
+      </c>
+      <c r="L1524" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1525">
+        <v>7</v>
+      </c>
+      <c r="C1525">
+        <v>4</v>
+      </c>
+      <c r="D1525">
+        <v>124</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1525">
+        <v>0</v>
+      </c>
+      <c r="I1525" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1525">
+        <v>0.65893462500025601</v>
+      </c>
+      <c r="L1525" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1526">
+        <v>7</v>
+      </c>
+      <c r="C1526">
+        <v>5</v>
+      </c>
+      <c r="D1526">
+        <v>125</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1526">
+        <v>0</v>
+      </c>
+      <c r="I1526" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1526" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1527">
+        <v>7</v>
+      </c>
+      <c r="C1527">
+        <v>6</v>
+      </c>
+      <c r="D1527">
+        <v>126</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1527">
+        <v>1</v>
+      </c>
+      <c r="I1527" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1527">
+        <v>0.245573088001037</v>
+      </c>
+      <c r="L1527" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1528">
+        <v>7</v>
+      </c>
+      <c r="C1528">
+        <v>7</v>
+      </c>
+      <c r="D1528">
+        <v>127</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1528">
+        <v>1</v>
+      </c>
+      <c r="I1528" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1528">
+        <v>0.33654739499979702</v>
+      </c>
+      <c r="L1528" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1529">
+        <v>7</v>
+      </c>
+      <c r="C1529">
+        <v>8</v>
+      </c>
+      <c r="D1529">
+        <v>128</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1529">
+        <v>1</v>
+      </c>
+      <c r="I1529" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1529">
+        <v>0.34816166800010201</v>
+      </c>
+      <c r="L1529" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1530">
+        <v>7</v>
+      </c>
+      <c r="C1530">
+        <v>9</v>
+      </c>
+      <c r="D1530">
+        <v>129</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1530" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1530">
+        <v>1</v>
+      </c>
+      <c r="I1530" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1530">
+        <v>0.24831727899982001</v>
+      </c>
+      <c r="L1530" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1531">
+        <v>7</v>
+      </c>
+      <c r="C1531">
+        <v>10</v>
+      </c>
+      <c r="D1531">
+        <v>130</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1531" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1531">
+        <v>1</v>
+      </c>
+      <c r="I1531" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1531">
+        <v>0.307277309999335</v>
+      </c>
+      <c r="L1531" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1532">
+        <v>7</v>
+      </c>
+      <c r="C1532">
+        <v>11</v>
+      </c>
+      <c r="D1532">
+        <v>131</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1532" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1532">
+        <v>1</v>
+      </c>
+      <c r="I1532" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1532">
+        <v>0.263808861000143</v>
+      </c>
+      <c r="L1532" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1533">
+        <v>7</v>
+      </c>
+      <c r="C1533">
+        <v>12</v>
+      </c>
+      <c r="D1533">
+        <v>132</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1533">
+        <v>0</v>
+      </c>
+      <c r="I1533" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1533">
+        <v>1.63084445200001</v>
+      </c>
+      <c r="L1533" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1534">
+        <v>7</v>
+      </c>
+      <c r="C1534">
+        <v>13</v>
+      </c>
+      <c r="D1534">
+        <v>133</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1534">
+        <v>1</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1534">
+        <v>1.2054728640014201</v>
+      </c>
+      <c r="L1534" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1535">
+        <v>7</v>
+      </c>
+      <c r="C1535">
+        <v>14</v>
+      </c>
+      <c r="D1535">
+        <v>134</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1535">
+        <v>1</v>
+      </c>
+      <c r="I1535" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1535">
+        <v>1.1027991099999701</v>
+      </c>
+      <c r="L1535" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1536">
+        <v>7</v>
+      </c>
+      <c r="C1536">
+        <v>15</v>
+      </c>
+      <c r="D1536">
+        <v>135</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1536">
+        <v>1</v>
+      </c>
+      <c r="I1536" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1536">
+        <v>1.5025301670011599</v>
+      </c>
+      <c r="L1536" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1537">
+        <v>7</v>
+      </c>
+      <c r="C1537">
+        <v>16</v>
+      </c>
+      <c r="D1537">
+        <v>136</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1537">
+        <v>0</v>
+      </c>
+      <c r="I1537" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1537">
+        <v>0.29777393200129099</v>
+      </c>
+      <c r="L1537" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1538">
+        <v>7</v>
+      </c>
+      <c r="C1538">
+        <v>17</v>
+      </c>
+      <c r="D1538">
+        <v>137</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1538">
+        <v>1</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1538">
+        <v>0.26744099499955998</v>
+      </c>
+      <c r="L1538" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1539">
+        <v>7</v>
+      </c>
+      <c r="C1539">
+        <v>18</v>
+      </c>
+      <c r="D1539">
+        <v>138</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1539">
+        <v>1</v>
+      </c>
+      <c r="I1539" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1539">
+        <v>0.51074917299956701</v>
+      </c>
+      <c r="L1539" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1540">
+        <v>7</v>
+      </c>
+      <c r="C1540">
+        <v>19</v>
+      </c>
+      <c r="D1540">
+        <v>139</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1540">
+        <v>1</v>
+      </c>
+      <c r="I1540" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1540">
+        <v>0.24378073100160599</v>
+      </c>
+      <c r="L1540" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1541">
+        <v>7</v>
+      </c>
+      <c r="C1541">
+        <v>20</v>
+      </c>
+      <c r="D1541">
+        <v>140</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1541">
+        <v>0</v>
+      </c>
+      <c r="I1541" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1541">
+        <v>7.5307082001017905E-2</v>
+      </c>
+      <c r="L1541" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1542">
+        <v>8</v>
+      </c>
+      <c r="C1542">
+        <v>1</v>
+      </c>
+      <c r="D1542">
+        <v>141</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1542">
+        <v>1</v>
+      </c>
+      <c r="I1542" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1542">
+        <v>0.32294997999997499</v>
+      </c>
+      <c r="L1542" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1543">
+        <v>8</v>
+      </c>
+      <c r="C1543">
+        <v>2</v>
+      </c>
+      <c r="D1543">
+        <v>142</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1543">
+        <v>1</v>
+      </c>
+      <c r="I1543" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1543" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1543">
+        <v>0.56762197399984804</v>
+      </c>
+      <c r="L1543" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1544">
+        <v>8</v>
+      </c>
+      <c r="C1544">
+        <v>3</v>
+      </c>
+      <c r="D1544">
+        <v>143</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1544">
+        <v>0</v>
+      </c>
+      <c r="I1544" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1544">
+        <v>0.66353568299928101</v>
+      </c>
+      <c r="L1544" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1545">
+        <v>8</v>
+      </c>
+      <c r="C1545">
+        <v>4</v>
+      </c>
+      <c r="D1545">
+        <v>144</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1545">
+        <v>1</v>
+      </c>
+      <c r="I1545" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1545">
+        <v>0.36659398699884999</v>
+      </c>
+      <c r="L1545" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1546">
+        <v>8</v>
+      </c>
+      <c r="C1546">
+        <v>5</v>
+      </c>
+      <c r="D1546">
+        <v>145</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1546">
+        <v>1</v>
+      </c>
+      <c r="I1546" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1546">
+        <v>1.09701078999933</v>
+      </c>
+      <c r="L1546" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1547">
+        <v>8</v>
+      </c>
+      <c r="C1547">
+        <v>6</v>
+      </c>
+      <c r="D1547">
+        <v>146</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1547">
+        <v>1</v>
+      </c>
+      <c r="I1547" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1547">
+        <v>0.74349138500110701</v>
+      </c>
+      <c r="L1547" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1548">
+        <v>8</v>
+      </c>
+      <c r="C1548">
+        <v>7</v>
+      </c>
+      <c r="D1548">
+        <v>147</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1548">
+        <v>1</v>
+      </c>
+      <c r="I1548" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1548">
+        <v>0.40526803700049602</v>
+      </c>
+      <c r="L1548" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1549">
+        <v>8</v>
+      </c>
+      <c r="C1549">
+        <v>8</v>
+      </c>
+      <c r="D1549">
+        <v>148</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1549">
+        <v>1</v>
+      </c>
+      <c r="I1549" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1549">
+        <v>0.42994065499988199</v>
+      </c>
+      <c r="L1549" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1550">
+        <v>8</v>
+      </c>
+      <c r="C1550">
+        <v>9</v>
+      </c>
+      <c r="D1550">
+        <v>149</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1550">
+        <v>0</v>
+      </c>
+      <c r="I1550" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1550">
+        <v>0.57044738599870404</v>
+      </c>
+      <c r="L1550" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1551">
+        <v>8</v>
+      </c>
+      <c r="C1551">
+        <v>10</v>
+      </c>
+      <c r="D1551">
+        <v>150</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1551">
+        <v>1</v>
+      </c>
+      <c r="I1551" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1551">
+        <v>0.66687075099980497</v>
+      </c>
+      <c r="L1551" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1552">
+        <v>8</v>
+      </c>
+      <c r="C1552">
+        <v>11</v>
+      </c>
+      <c r="D1552">
+        <v>151</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1552">
+        <v>1</v>
+      </c>
+      <c r="I1552" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1552">
+        <v>0.69042410200017901</v>
+      </c>
+      <c r="L1552" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1553">
+        <v>8</v>
+      </c>
+      <c r="C1553">
+        <v>12</v>
+      </c>
+      <c r="D1553">
+        <v>152</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1553">
+        <v>0</v>
+      </c>
+      <c r="I1553" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1553">
+        <v>1.23749780199977</v>
+      </c>
+      <c r="L1553" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1554">
+        <v>8</v>
+      </c>
+      <c r="C1554">
+        <v>13</v>
+      </c>
+      <c r="D1554">
+        <v>153</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1554">
+        <v>0</v>
+      </c>
+      <c r="I1554" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1554">
+        <v>0.922376921998875</v>
+      </c>
+      <c r="L1554" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1555">
+        <v>8</v>
+      </c>
+      <c r="C1555">
+        <v>14</v>
+      </c>
+      <c r="D1555">
+        <v>154</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1555">
+        <v>1</v>
+      </c>
+      <c r="I1555" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1555">
+        <v>0.30186173399852101</v>
+      </c>
+      <c r="L1555" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1556">
+        <v>8</v>
+      </c>
+      <c r="C1556">
+        <v>15</v>
+      </c>
+      <c r="D1556">
+        <v>155</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1556">
+        <v>0</v>
+      </c>
+      <c r="I1556" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1556">
+        <v>0.232793068998944</v>
+      </c>
+      <c r="L1556" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1557">
+        <v>8</v>
+      </c>
+      <c r="C1557">
+        <v>16</v>
+      </c>
+      <c r="D1557">
+        <v>156</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1557">
+        <v>1</v>
+      </c>
+      <c r="I1557" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1557">
+        <v>0.70185834500080002</v>
+      </c>
+      <c r="L1557" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1558">
+        <v>8</v>
+      </c>
+      <c r="C1558">
+        <v>17</v>
+      </c>
+      <c r="D1558">
+        <v>157</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1558">
+        <v>0</v>
+      </c>
+      <c r="I1558" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1558">
+        <v>0.60721431799902303</v>
+      </c>
+      <c r="L1558" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1559">
+        <v>8</v>
+      </c>
+      <c r="C1559">
+        <v>18</v>
+      </c>
+      <c r="D1559">
+        <v>158</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1559">
+        <v>1</v>
+      </c>
+      <c r="I1559" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1559">
+        <v>0.23167045100126399</v>
+      </c>
+      <c r="L1559" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1560">
+        <v>8</v>
+      </c>
+      <c r="C1560">
+        <v>19</v>
+      </c>
+      <c r="D1560">
+        <v>159</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1560">
+        <v>1</v>
+      </c>
+      <c r="I1560" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1560">
+        <v>0.31853568699989399</v>
+      </c>
+      <c r="L1560" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1561">
+        <v>8</v>
+      </c>
+      <c r="C1561">
+        <v>20</v>
+      </c>
+      <c r="D1561">
+        <v>160</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1561">
+        <v>0</v>
+      </c>
+      <c r="I1561" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1561">
+        <v>0.67328964399894098</v>
+      </c>
+      <c r="L1561" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1562">
+        <v>9</v>
+      </c>
+      <c r="C1562">
+        <v>1</v>
+      </c>
+      <c r="D1562">
+        <v>161</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1562">
+        <v>1</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1562">
+        <v>1.3544514389996001</v>
+      </c>
+      <c r="L1562" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1563">
+        <v>9</v>
+      </c>
+      <c r="C1563">
+        <v>2</v>
+      </c>
+      <c r="D1563">
+        <v>162</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1563">
+        <v>1</v>
+      </c>
+      <c r="I1563" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1563">
+        <v>1.0309859830013</v>
+      </c>
+      <c r="L1563" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1564">
+        <v>9</v>
+      </c>
+      <c r="C1564">
+        <v>3</v>
+      </c>
+      <c r="D1564">
+        <v>163</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1564">
+        <v>1</v>
+      </c>
+      <c r="I1564" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1564">
+        <v>0.77827190800053303</v>
+      </c>
+      <c r="L1564" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1565">
+        <v>9</v>
+      </c>
+      <c r="C1565">
+        <v>4</v>
+      </c>
+      <c r="D1565">
+        <v>164</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1565">
+        <v>0</v>
+      </c>
+      <c r="I1565" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1565">
+        <v>0.55581694699867501</v>
+      </c>
+      <c r="L1565" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1566">
+        <v>9</v>
+      </c>
+      <c r="C1566">
+        <v>5</v>
+      </c>
+      <c r="D1566">
+        <v>165</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1566">
+        <v>1</v>
+      </c>
+      <c r="I1566" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1566">
+        <v>0.79749149800045405</v>
+      </c>
+      <c r="L1566" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1567">
+        <v>9</v>
+      </c>
+      <c r="C1567">
+        <v>6</v>
+      </c>
+      <c r="D1567">
+        <v>166</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1567">
+        <v>1</v>
+      </c>
+      <c r="I1567" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1567">
+        <v>0.55174058200100196</v>
+      </c>
+      <c r="L1567" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1568">
+        <v>9</v>
+      </c>
+      <c r="C1568">
+        <v>7</v>
+      </c>
+      <c r="D1568">
+        <v>167</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1568">
+        <v>1</v>
+      </c>
+      <c r="I1568" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1568">
+        <v>0.23623490000136299</v>
+      </c>
+      <c r="L1568" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1569">
+        <v>9</v>
+      </c>
+      <c r="C1569">
+        <v>8</v>
+      </c>
+      <c r="D1569">
+        <v>168</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1569">
+        <v>1</v>
+      </c>
+      <c r="I1569" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1569">
+        <v>0.44841952400020002</v>
+      </c>
+      <c r="L1569" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1570">
+        <v>9</v>
+      </c>
+      <c r="C1570">
+        <v>9</v>
+      </c>
+      <c r="D1570">
+        <v>169</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1570">
+        <v>1</v>
+      </c>
+      <c r="I1570" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1570">
+        <v>1.21844611999949</v>
+      </c>
+      <c r="L1570" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1571">
+        <v>9</v>
+      </c>
+      <c r="C1571">
+        <v>10</v>
+      </c>
+      <c r="D1571">
+        <v>170</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1571">
+        <v>1</v>
+      </c>
+      <c r="I1571" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1571">
+        <v>0.233670112000254</v>
+      </c>
+      <c r="L1571" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1572">
+        <v>9</v>
+      </c>
+      <c r="C1572">
+        <v>11</v>
+      </c>
+      <c r="D1572">
+        <v>171</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1572">
+        <v>0</v>
+      </c>
+      <c r="I1572" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1572">
+        <v>0.70198388700009595</v>
+      </c>
+      <c r="L1572" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1573">
+        <v>9</v>
+      </c>
+      <c r="C1573">
+        <v>12</v>
+      </c>
+      <c r="D1573">
+        <v>172</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1573">
+        <v>1</v>
+      </c>
+      <c r="I1573" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1573">
+        <v>0.81654617599997403</v>
+      </c>
+      <c r="L1573" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1574">
+        <v>9</v>
+      </c>
+      <c r="C1574">
+        <v>13</v>
+      </c>
+      <c r="D1574">
+        <v>173</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1574">
+        <v>0</v>
+      </c>
+      <c r="I1574" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1574">
+        <v>0.54800294100095903</v>
+      </c>
+      <c r="L1574" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1575">
+        <v>9</v>
+      </c>
+      <c r="C1575">
+        <v>14</v>
+      </c>
+      <c r="D1575">
+        <v>174</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1575" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1575">
+        <v>1</v>
+      </c>
+      <c r="I1575" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1575">
+        <v>0.538111011999717</v>
+      </c>
+      <c r="L1575" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1576">
+        <v>9</v>
+      </c>
+      <c r="C1576">
+        <v>15</v>
+      </c>
+      <c r="D1576">
+        <v>175</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1576">
+        <v>1</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1576">
+        <v>0.56234929499987596</v>
+      </c>
+      <c r="L1576" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1577">
+        <v>9</v>
+      </c>
+      <c r="C1577">
+        <v>16</v>
+      </c>
+      <c r="D1577">
+        <v>176</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1577">
+        <v>0</v>
+      </c>
+      <c r="I1577" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1577">
+        <v>0.77687648600112802</v>
+      </c>
+      <c r="L1577" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1578">
+        <v>9</v>
+      </c>
+      <c r="C1578">
+        <v>17</v>
+      </c>
+      <c r="D1578">
+        <v>177</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1578" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1578">
+        <v>0</v>
+      </c>
+      <c r="I1578" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1578">
+        <v>0.89428900399980105</v>
+      </c>
+      <c r="L1578" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1579">
+        <v>9</v>
+      </c>
+      <c r="C1579">
+        <v>18</v>
+      </c>
+      <c r="D1579">
+        <v>178</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1579">
+        <v>0</v>
+      </c>
+      <c r="I1579" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1579">
+        <v>0.36000107899963002</v>
+      </c>
+      <c r="L1579" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1580">
+        <v>9</v>
+      </c>
+      <c r="C1580">
+        <v>19</v>
+      </c>
+      <c r="D1580">
+        <v>179</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1580">
+        <v>0</v>
+      </c>
+      <c r="I1580" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1580">
+        <v>0.350344353000764</v>
+      </c>
+      <c r="L1580" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1581">
+        <v>9</v>
+      </c>
+      <c r="C1581">
+        <v>20</v>
+      </c>
+      <c r="D1581">
+        <v>180</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1581">
+        <v>1</v>
+      </c>
+      <c r="I1581" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1581">
+        <v>0.59113826400061897</v>
+      </c>
+      <c r="L1581" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1582">
+        <v>10</v>
+      </c>
+      <c r="C1582">
+        <v>1</v>
+      </c>
+      <c r="D1582">
+        <v>181</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1582">
+        <v>0</v>
+      </c>
+      <c r="I1582" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1582">
+        <v>0.32192564199976897</v>
+      </c>
+      <c r="L1582" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1583">
+        <v>10</v>
+      </c>
+      <c r="C1583">
+        <v>2</v>
+      </c>
+      <c r="D1583">
+        <v>182</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1583">
+        <v>1</v>
+      </c>
+      <c r="I1583" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1583" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1583">
+        <v>1.0263466689993901</v>
+      </c>
+      <c r="L1583" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1584">
+        <v>10</v>
+      </c>
+      <c r="C1584">
+        <v>3</v>
+      </c>
+      <c r="D1584">
+        <v>183</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1584">
+        <v>0</v>
+      </c>
+      <c r="I1584" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1584">
+        <v>0.544959898001252</v>
+      </c>
+      <c r="L1584" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1585">
+        <v>10</v>
+      </c>
+      <c r="C1585">
+        <v>4</v>
+      </c>
+      <c r="D1585">
+        <v>184</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1585">
+        <v>1</v>
+      </c>
+      <c r="I1585" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1585">
+        <v>0.95803896299912505</v>
+      </c>
+      <c r="L1585" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1586">
+        <v>10</v>
+      </c>
+      <c r="C1586">
+        <v>5</v>
+      </c>
+      <c r="D1586">
+        <v>185</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1586">
+        <v>0</v>
+      </c>
+      <c r="I1586" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1586">
+        <v>0.91382932600026801</v>
+      </c>
+      <c r="L1586" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1587">
+        <v>10</v>
+      </c>
+      <c r="C1587">
+        <v>6</v>
+      </c>
+      <c r="D1587">
+        <v>186</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1587">
+        <v>0</v>
+      </c>
+      <c r="I1587" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1587">
+        <v>0.64050185899941403</v>
+      </c>
+      <c r="L1587" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1588">
+        <v>10</v>
+      </c>
+      <c r="C1588">
+        <v>7</v>
+      </c>
+      <c r="D1588">
+        <v>187</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1588">
+        <v>1</v>
+      </c>
+      <c r="I1588" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1588">
+        <v>0.67840186800094604</v>
+      </c>
+      <c r="L1588" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1589">
+        <v>10</v>
+      </c>
+      <c r="C1589">
+        <v>8</v>
+      </c>
+      <c r="D1589">
+        <v>188</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1589">
+        <v>1</v>
+      </c>
+      <c r="I1589" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1589">
+        <v>0.75988801099992997</v>
+      </c>
+      <c r="L1589" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1590">
+        <v>10</v>
+      </c>
+      <c r="C1590">
+        <v>9</v>
+      </c>
+      <c r="D1590">
+        <v>189</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1590">
+        <v>0</v>
+      </c>
+      <c r="I1590" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1590">
+        <v>0.78254063300119003</v>
+      </c>
+      <c r="L1590" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1591">
+        <v>10</v>
+      </c>
+      <c r="C1591">
+        <v>10</v>
+      </c>
+      <c r="D1591">
+        <v>190</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1591">
+        <v>0</v>
+      </c>
+      <c r="I1591" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1591">
+        <v>1.1034854230001601</v>
+      </c>
+      <c r="L1591" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1592">
+        <v>10</v>
+      </c>
+      <c r="C1592">
+        <v>11</v>
+      </c>
+      <c r="D1592">
+        <v>191</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1592">
+        <v>1</v>
+      </c>
+      <c r="I1592" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1592">
+        <v>0.71295963099873905</v>
+      </c>
+      <c r="L1592" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1593">
+        <v>10</v>
+      </c>
+      <c r="C1593">
+        <v>12</v>
+      </c>
+      <c r="D1593">
+        <v>192</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1593">
+        <v>0</v>
+      </c>
+      <c r="I1593" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1593">
+        <v>0.786798687000555</v>
+      </c>
+      <c r="L1593" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1594" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1594">
+        <v>10</v>
+      </c>
+      <c r="C1594">
+        <v>13</v>
+      </c>
+      <c r="D1594">
+        <v>193</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1594">
+        <v>0</v>
+      </c>
+      <c r="I1594" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1594">
+        <v>0.49112195199995701</v>
+      </c>
+      <c r="L1594" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1595">
+        <v>10</v>
+      </c>
+      <c r="C1595">
+        <v>14</v>
+      </c>
+      <c r="D1595">
+        <v>194</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1595">
+        <v>0</v>
+      </c>
+      <c r="I1595" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1595">
+        <v>0.63266766300148403</v>
+      </c>
+      <c r="L1595" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1596" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1596">
+        <v>10</v>
+      </c>
+      <c r="C1596">
+        <v>15</v>
+      </c>
+      <c r="D1596">
+        <v>195</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1596" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1596">
+        <v>1</v>
+      </c>
+      <c r="I1596" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1596">
+        <v>0.65532521900058704</v>
+      </c>
+      <c r="L1596" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1597" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1597">
+        <v>10</v>
+      </c>
+      <c r="C1597">
+        <v>16</v>
+      </c>
+      <c r="D1597">
+        <v>196</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1597">
+        <v>0</v>
+      </c>
+      <c r="I1597" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1597">
+        <v>0.74340840600052605</v>
+      </c>
+      <c r="L1597" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1598" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1598">
+        <v>10</v>
+      </c>
+      <c r="C1598">
+        <v>17</v>
+      </c>
+      <c r="D1598">
+        <v>197</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1598" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1598">
+        <v>0</v>
+      </c>
+      <c r="I1598" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1598">
+        <v>0.77974831800020095</v>
+      </c>
+      <c r="L1598" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1599" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1599">
+        <v>10</v>
+      </c>
+      <c r="C1599">
+        <v>18</v>
+      </c>
+      <c r="D1599">
+        <v>198</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1599">
+        <v>1</v>
+      </c>
+      <c r="I1599" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1599">
+        <v>0.67724639100015305</v>
+      </c>
+      <c r="L1599" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1600" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1600">
+        <v>10</v>
+      </c>
+      <c r="C1600">
+        <v>19</v>
+      </c>
+      <c r="D1600">
+        <v>199</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1600">
+        <v>1</v>
+      </c>
+      <c r="I1600" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1600">
+        <v>0.67497834099958698</v>
+      </c>
+      <c r="L1600" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1601">
+        <v>10</v>
+      </c>
+      <c r="C1601">
+        <v>20</v>
+      </c>
+      <c r="D1601">
+        <v>200</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1601">
+        <v>0.68091220399946895</v>
+      </c>
+      <c r="L1601" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
